--- a/UVA/4--Statistical_Learning/Disaster_Relief_Project/Cross-Validation_And_Holdout_Performance_Tables.xlsx
+++ b/UVA/4--Statistical_Learning/Disaster_Relief_Project/Cross-Validation_And_Holdout_Performance_Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Documents\Tom_Levers_Public_Git_Repository\UVA\4--Statistical_Learning\Disaster_Relief_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EBE254-03BA-420E-A801-D44DF06033BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3E3F91-1331-4C53-8080-BFCF5A68D340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28815" yWindow="90" windowWidth="28890" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance_Table" sheetId="1" r:id="rId1"/>
@@ -728,7 +728,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -756,15 +756,6 @@
     <xf numFmtId="164" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="41" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="41" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="41" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="41" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="41" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="41" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="41" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="41" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="41" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -824,8 +815,8 @@
   <colors>
     <mruColors>
       <color rgb="FF66FFCC"/>
+      <color rgb="FFFF6600"/>
       <color rgb="FFFF9900"/>
-      <color rgb="FFFF6600"/>
       <color rgb="FF00FFCC"/>
       <color rgb="FFCC6600"/>
     </mruColors>
@@ -1140,7 +1131,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1575,31 +1568,31 @@
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="3">
         <v>0.99919999999999998</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="3">
         <v>0.99919999999999998</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="3">
         <v>0.94989999999999997</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="3">
         <v>0.98499999999999999</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="3">
         <v>0.99409999999999998</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="3">
         <v>0.99390000000000001</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="3">
         <v>0.99850000000000005</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="3">
         <v>0.99939999999999996</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="3">
         <v>0.98950000000000005</v>
       </c>
     </row>
@@ -1610,31 +1603,31 @@
       <c r="B20" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="3">
         <v>0.99590000000000001</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="3">
         <v>0.996</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="3">
         <v>0.99370000000000003</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="3">
         <v>0.99470000000000003</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="3">
         <v>0.99729999999999996</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="3">
         <v>0.997</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="3">
         <v>0.99639999999999995</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="3">
         <v>0.99639999999999995</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="3">
         <v>0.99739999999999995</v>
       </c>
     </row>
@@ -1785,41 +1778,41 @@
       <c r="B25" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="25">
-        <f>2*7+2*4+3*3</f>
-        <v>31</v>
-      </c>
-      <c r="D25" s="25">
-        <f>1*8+1*5+3*4+2*3</f>
-        <v>31</v>
-      </c>
-      <c r="E25" s="26">
-        <f>2*9+5*1</f>
-        <v>23</v>
-      </c>
-      <c r="F25" s="27">
-        <f>2*5+5*2</f>
+      <c r="C25" s="5">
+        <f>1*7+2*4+2*3</f>
+        <v>21</v>
+      </c>
+      <c r="D25" s="5">
+        <f>1*5+2*4+2*3</f>
+        <v>19</v>
+      </c>
+      <c r="E25" s="5">
+        <f>2*9+3*1</f>
+        <v>21</v>
+      </c>
+      <c r="F25" s="5">
+        <f>2*5+3*2</f>
+        <v>16</v>
+      </c>
+      <c r="G25" s="5">
+        <f>3*8+1*6+1*3</f>
+        <v>33</v>
+      </c>
+      <c r="H25" s="5">
+        <f>1*8+3*7+1*5</f>
+        <v>34</v>
+      </c>
+      <c r="I25" s="5">
+        <f>1*9+1*8+1*6+2*1</f>
+        <v>25</v>
+      </c>
+      <c r="J25" s="5">
+        <f>1*7+1*5+1*4+2*2</f>
         <v>20</v>
       </c>
-      <c r="G25" s="22">
-        <f>4*8+1*6+1*5+1*3</f>
-        <v>46</v>
-      </c>
-      <c r="H25" s="22">
-        <f>1*9+4*7+1*5+1*4</f>
-        <v>46</v>
-      </c>
-      <c r="I25" s="23">
-        <f>1*9+1*8+3*6+2*1</f>
-        <v>37</v>
-      </c>
-      <c r="J25" s="24">
-        <f>1*9+1*7+2*5+1*4+2*2</f>
-        <v>34</v>
-      </c>
-      <c r="K25" s="21">
-        <f>3*9+3*6+1*3</f>
-        <v>48</v>
+      <c r="K25" s="5">
+        <f>2*9+3*6</f>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1904,31 +1897,31 @@
       <c r="B30" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="3">
         <v>0.99909999999999999</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="3">
         <v>0.99960000000000004</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="3">
         <v>0.95330000000000004</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="3">
         <v>0.78559999999999997</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="3">
         <v>0.93340000000000001</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="3">
         <v>0.97929999999999995</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I30" s="3">
         <v>0.99909999999999999</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="3">
         <v>0.99850000000000005</v>
       </c>
-      <c r="K30" s="19">
+      <c r="K30" s="3">
         <v>0.79249999999999998</v>
       </c>
     </row>
@@ -1939,31 +1932,31 @@
       <c r="B31" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="3">
         <v>0.99829999999999997</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="3">
         <v>0.99880000000000002</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="3">
         <v>0.99639999999999995</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="3">
         <v>0.99460000000000004</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="3">
         <v>0.99460000000000004</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="3">
         <v>0.99509999999999998</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I31" s="3">
         <v>0.99850000000000005</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="3">
         <v>0.99780000000000002</v>
       </c>
-      <c r="K31" s="12">
+      <c r="K31" s="3">
         <v>0.98780000000000001</v>
       </c>
     </row>
@@ -2114,41 +2107,41 @@
       <c r="B36" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="28">
-        <f>3*8+3*7+1*6</f>
-        <v>51</v>
-      </c>
-      <c r="D36" s="21">
-        <f>6*9+1*7</f>
-        <v>61</v>
-      </c>
-      <c r="E36" s="24">
-        <f>1*6+4*5+1*4+1*3</f>
-        <v>33</v>
-      </c>
-      <c r="F36" s="26">
-        <f>2*4+1*3+2*2+2*1</f>
-        <v>17</v>
-      </c>
-      <c r="G36" s="29">
-        <f>1*4+3*3+3*2</f>
+      <c r="C36" s="5">
+        <f>3*8+1*7+1*6</f>
+        <v>37</v>
+      </c>
+      <c r="D36" s="5">
+        <f>4*9+1*7</f>
+        <v>43</v>
+      </c>
+      <c r="E36" s="5">
+        <f>1*6+3*5+1*3</f>
+        <v>24</v>
+      </c>
+      <c r="F36" s="5">
+        <f>2*4+2*2+1*1</f>
+        <v>13</v>
+      </c>
+      <c r="G36" s="5">
+        <f>1*4+2*3+2*2</f>
+        <v>14</v>
+      </c>
+      <c r="H36" s="5">
+        <f>1*5+2*4+2*3</f>
         <v>19</v>
       </c>
-      <c r="H36" s="25">
-        <f>2*5+3*4+2*3</f>
-        <v>28</v>
-      </c>
-      <c r="I36" s="22">
-        <f>1*9+3*8+3*7</f>
-        <v>54</v>
-      </c>
-      <c r="J36" s="23">
-        <f>1*8+5*6+1*5</f>
-        <v>43</v>
-      </c>
-      <c r="K36" s="27">
-        <f>2*2+5*1</f>
-        <v>9</v>
+      <c r="I36" s="5">
+        <f>1*9+1*8+3*7</f>
+        <v>38</v>
+      </c>
+      <c r="J36" s="5">
+        <f>1*8+3*6+1*5</f>
+        <v>31</v>
+      </c>
+      <c r="K36" s="5">
+        <f>1*2+4*1</f>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2163,41 +2156,41 @@
       <c r="B39" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="32">
-        <f>C25+C36</f>
-        <v>82</v>
-      </c>
-      <c r="D39" s="30">
-        <f>D25+D36</f>
-        <v>92</v>
-      </c>
-      <c r="E39" s="38">
-        <f>E25+E36</f>
-        <v>56</v>
-      </c>
-      <c r="F39" s="36">
-        <f>F25+F36</f>
-        <v>37</v>
-      </c>
-      <c r="G39" s="35">
-        <f>G25+G36</f>
-        <v>65</v>
-      </c>
-      <c r="H39" s="34">
-        <f>H25+H36</f>
-        <v>74</v>
-      </c>
-      <c r="I39" s="31">
-        <f>I25+I36</f>
-        <v>91</v>
-      </c>
-      <c r="J39" s="33">
-        <f>J25+J36</f>
-        <v>77</v>
-      </c>
-      <c r="K39" s="37">
-        <f>K25+K36</f>
-        <v>57</v>
+      <c r="C39" s="23">
+        <f t="shared" ref="C39:K39" si="0">C25+C36</f>
+        <v>58</v>
+      </c>
+      <c r="D39" s="22">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="E39" s="28">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="F39" s="27">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="G39" s="26">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="H39" s="24">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="I39" s="21">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="J39" s="25">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="K39" s="29">
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
